--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3840325.784851233</v>
+        <v>3837699.529441685</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>449487.874693199</v>
+        <v>449487.8746931991</v>
       </c>
     </row>
     <row r="9">
@@ -668,11 +668,11 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="G2" t="n">
-        <v>61.40579841663008</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>133.3848909959479</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>118.3455344421991</v>
       </c>
       <c r="X3" t="n">
-        <v>171.5751609241006</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>221.2006630000037</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V5" t="n">
-        <v>276.1565137023555</v>
+        <v>93.88791431953697</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>54.72059546277752</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>15.92068873709658</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>26.51572092966557</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>94.25736106477147</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>114.8791903675466</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.8786333846982</v>
+        <v>111.6652717683134</v>
       </c>
       <c r="C13" t="n">
         <v>157.2934743013888</v>
       </c>
       <c r="D13" t="n">
-        <v>131.6084644404382</v>
+        <v>138.6621262209733</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>155.7045151381482</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.5302908032558</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.33392417074208</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>371.9770232750227</v>
       </c>
       <c r="F14" t="n">
-        <v>396.9226989444709</v>
+        <v>396.9226989444724</v>
       </c>
       <c r="G14" t="n">
         <v>400.1481056449911</v>
@@ -1658,7 +1658,7 @@
         <v>80.54243919018545</v>
       </c>
       <c r="T14" t="n">
-        <v>190.373877360251</v>
+        <v>190.3738773602498</v>
       </c>
       <c r="U14" t="n">
         <v>240.976203304765</v>
@@ -1765,22 +1765,22 @@
         <v>169.8786333846982</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>157.2934743013888</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>138.6621262209733</v>
       </c>
       <c r="E16" t="n">
-        <v>21.90394671287895</v>
+        <v>136.4806158493301</v>
       </c>
       <c r="F16" t="n">
-        <v>135.4677012256922</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.7045151381482</v>
+        <v>12.17023750828303</v>
       </c>
       <c r="H16" t="n">
-        <v>131.5302908032558</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>80.54243919018543</v>
+        <v>80.54243919018545</v>
       </c>
       <c r="T17" t="n">
         <v>190.373877360251</v>
@@ -1904,7 +1904,7 @@
         <v>317.7989116728958</v>
       </c>
       <c r="W17" t="n">
-        <v>339.2876219201739</v>
+        <v>339.2876219201727</v>
       </c>
       <c r="X17" t="n">
         <v>359.77775388123</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>136.4806158493301</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07817363718235981</v>
+        <v>135.4677012256922</v>
       </c>
       <c r="G19" t="n">
         <v>155.7045151381482</v>
       </c>
       <c r="H19" t="n">
-        <v>131.5302908032558</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.33392417074208</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>242.1842965265889</v>
       </c>
       <c r="W19" t="n">
-        <v>276.5696515393519</v>
+        <v>60.89587473402578</v>
       </c>
       <c r="X19" t="n">
         <v>215.7563085917981</v>
@@ -2081,7 +2081,7 @@
         <v>372.7804948662415</v>
       </c>
       <c r="C20" t="n">
-        <v>355.3195449737685</v>
+        <v>355.3195449737671</v>
       </c>
       <c r="D20" t="n">
         <v>344.7296948234439</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.54243919018543</v>
+        <v>80.54243919018545</v>
       </c>
       <c r="T20" t="n">
         <v>190.373877360251</v>
@@ -2242,13 +2242,13 @@
         <v>157.2934743013888</v>
       </c>
       <c r="D22" t="n">
-        <v>0.07817363718235981</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>136.4806158493301</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>135.4677012256922</v>
       </c>
       <c r="G22" t="n">
         <v>155.7045151381482</v>
@@ -2299,10 +2299,10 @@
         <v>242.1842965265889</v>
       </c>
       <c r="W22" t="n">
-        <v>276.5696515393519</v>
+        <v>220.4558166933101</v>
       </c>
       <c r="X22" t="n">
-        <v>215.7563085917981</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>208.6313065548557</v>
@@ -2321,7 +2321,7 @@
         <v>355.3195449737685</v>
       </c>
       <c r="D23" t="n">
-        <v>344.7296948234439</v>
+        <v>344.7296948234425</v>
       </c>
       <c r="E23" t="n">
         <v>371.9770232750227</v>
@@ -2378,7 +2378,7 @@
         <v>317.7989116728958</v>
       </c>
       <c r="W23" t="n">
-        <v>339.2876219201736</v>
+        <v>339.2876219201739</v>
       </c>
       <c r="X23" t="n">
         <v>359.77775388123</v>
@@ -2479,7 +2479,7 @@
         <v>157.2934743013888</v>
       </c>
       <c r="D25" t="n">
-        <v>131.6084644404382</v>
+        <v>138.6621262209733</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.7045151381482</v>
+        <v>148.6508533576131</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.1353275737717</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6578619353873</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.9768149842488</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1917684061415</v>
+        <v>248.9025645895732</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.0675205837852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>76.479404686206</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6578619353873</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.28727096798116</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>72.38794797251879</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>183.3567244003537</v>
       </c>
       <c r="T31" t="n">
         <v>217.9768149842488</v>
@@ -3047,7 +3047,7 @@
         <v>286.2071413628797</v>
       </c>
       <c r="I32" t="n">
-        <v>9.953346797239078</v>
+        <v>9.95334679723908</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>128.3686581188191</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6578619353873</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.9768149842488</v>
       </c>
       <c r="U34" t="n">
-        <v>230.2712165091577</v>
+        <v>286.1917684061415</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.6578619353873</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>141.4836376004949</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.28727096798116</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>217.9768149842488</v>
       </c>
       <c r="U37" t="n">
-        <v>88.78757890866284</v>
+        <v>286.1917684061415</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>42.69969986400275</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>84.62415472756142</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.6578619353873</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>141.4836376004949</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>72.38794797251879</v>
       </c>
       <c r="S40" t="n">
         <v>183.3567244003537</v>
       </c>
       <c r="T40" t="n">
-        <v>145.2495978792366</v>
+        <v>217.9768149842488</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1917684061415</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3758,7 +3758,7 @@
         <v>286.2071413628797</v>
       </c>
       <c r="I41" t="n">
-        <v>9.953346797239078</v>
+        <v>9.95334679723959</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.9114282849536</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.28727096798116</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>110.7748480224981</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>111.3262692016441</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.6578619353873</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>16.34562763125591</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>353.1249510203241</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="C2" t="n">
-        <v>353.1249510203241</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="D2" t="n">
-        <v>353.1249510203241</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="E2" t="n">
-        <v>353.1249510203241</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="F2" t="n">
-        <v>87.22390662470127</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4340,7 +4340,7 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S2" t="n">
-        <v>843.966258332007</v>
+        <v>772.7231926143249</v>
       </c>
       <c r="T2" t="n">
-        <v>619.0259954159469</v>
+        <v>547.7829296982649</v>
       </c>
       <c r="U2" t="n">
-        <v>619.0259954159469</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="V2" t="n">
-        <v>619.0259954159469</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="W2" t="n">
-        <v>619.0259954159469</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="X2" t="n">
-        <v>619.0259954159469</v>
+        <v>293.9059078609596</v>
       </c>
       <c r="Y2" t="n">
-        <v>353.1249510203241</v>
+        <v>293.9059078609596</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>503.6842566639671</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="C3" t="n">
         <v>329.2312273828401</v>
@@ -4407,25 +4407,25 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>394.9337607940759</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M3" t="n">
-        <v>655.5433744062259</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N3" t="n">
-        <v>916.1529880183758</v>
+        <v>679.4402777642121</v>
       </c>
       <c r="O3" t="n">
-        <v>1052.968135806666</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4440,19 +4440,19 @@
         <v>1052.968135806666</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>824.7478070488712</v>
       </c>
       <c r="W3" t="n">
-        <v>1052.968135806666</v>
+        <v>705.206863167862</v>
       </c>
       <c r="X3" t="n">
-        <v>879.659892448989</v>
+        <v>705.206863167862</v>
       </c>
       <c r="Y3" t="n">
-        <v>671.8995936840352</v>
+        <v>497.4465644029081</v>
       </c>
     </row>
     <row r="4">
@@ -4516,19 +4516,19 @@
         <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
         <v>21.05936271613333</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267.7881344992537</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="C5" t="n">
-        <v>267.7881344992537</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="D5" t="n">
-        <v>44.35312136793684</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E5" t="n">
-        <v>44.35312136793684</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F5" t="n">
-        <v>37.40762061873336</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G5" t="n">
-        <v>22.09252109618844</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4568,10 +4568,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L5" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
         <v>586.3582880173956</v>
@@ -4580,7 +4580,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4592,25 +4592,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S5" t="n">
-        <v>1104.626054809422</v>
+        <v>896.7353068029595</v>
       </c>
       <c r="T5" t="n">
-        <v>1104.626054809422</v>
+        <v>672.0084928939002</v>
       </c>
       <c r="U5" t="n">
-        <v>1104.626054809422</v>
+        <v>418.1353718951009</v>
       </c>
       <c r="V5" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="W5" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="X5" t="n">
-        <v>825.6800813726992</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.7341079359765</v>
+        <v>323.2990948046595</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>504.7174150440222</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="C6" t="n">
-        <v>330.2643857628952</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="D6" t="n">
-        <v>181.329976101644</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="E6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="F6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="G6" t="n">
-        <v>22.09252109618844</v>
+        <v>165.0457258289813</v>
       </c>
       <c r="H6" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I6" t="n">
         <v>22.09252109618844</v>
@@ -4647,19 +4647,19 @@
         <v>28.39914141318535</v>
       </c>
       <c r="K6" t="n">
-        <v>28.39914141318535</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L6" t="n">
-        <v>274.5546080058863</v>
+        <v>165.799003153448</v>
       </c>
       <c r="M6" t="n">
-        <v>547.9495565712182</v>
+        <v>439.1939517187799</v>
       </c>
       <c r="N6" t="n">
-        <v>759.2151904085662</v>
+        <v>712.5889002841118</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.71200399185</v>
+        <v>979.0857138673956</v>
       </c>
       <c r="P6" t="n">
         <v>1025.71200399185</v>
@@ -4668,28 +4668,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1104.626054809422</v>
+        <v>1008.180757940352</v>
       </c>
       <c r="S6" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="T6" t="n">
-        <v>1104.626054809422</v>
+        <v>836.1767451915302</v>
       </c>
       <c r="U6" t="n">
-        <v>1104.626054809422</v>
+        <v>607.9581328256779</v>
       </c>
       <c r="V6" t="n">
-        <v>1104.626054809422</v>
+        <v>372.8060245939352</v>
       </c>
       <c r="W6" t="n">
-        <v>1088.544551034577</v>
+        <v>372.8060245939352</v>
       </c>
       <c r="X6" t="n">
-        <v>880.6930508290441</v>
+        <v>372.8060245939352</v>
       </c>
       <c r="Y6" t="n">
-        <v>672.9327520640902</v>
+        <v>165.0457258289813</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D7" t="n">
-        <v>48.87607759080012</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E7" t="n">
         <v>22.09252109618844</v>
@@ -4744,31 +4744,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T7" t="n">
-        <v>198.9927170031359</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1865.381229508782</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1899.29307981255</v>
       </c>
       <c r="D11" t="n">
-        <v>1551.081266859577</v>
+        <v>1551.081266859576</v>
       </c>
       <c r="E11" t="n">
         <v>1175.346899915109</v>
       </c>
       <c r="F11" t="n">
-        <v>774.4148807792786</v>
+        <v>774.4148807792781</v>
       </c>
       <c r="G11" t="n">
         <v>370.2248750772684</v>
@@ -5039,28 +5039,28 @@
         <v>91.18063814227779</v>
       </c>
       <c r="J11" t="n">
-        <v>516.3888849481104</v>
+        <v>348.9832359277574</v>
       </c>
       <c r="K11" t="n">
-        <v>953.5066688451832</v>
+        <v>786.1010198248302</v>
       </c>
       <c r="L11" t="n">
-        <v>1532.691694225914</v>
+        <v>1365.286045205561</v>
       </c>
       <c r="M11" t="n">
-        <v>2208.816069413052</v>
+        <v>2041.410420392699</v>
       </c>
       <c r="N11" t="n">
-        <v>2900.494652235822</v>
+        <v>2896.615197784468</v>
       </c>
       <c r="O11" t="n">
-        <v>3540.291863052486</v>
+        <v>3536.412408601132</v>
       </c>
       <c r="P11" t="n">
-        <v>4051.842979393937</v>
+        <v>4047.963524942583</v>
       </c>
       <c r="Q11" t="n">
-        <v>4387.823817100726</v>
+        <v>4383.944362649372</v>
       </c>
       <c r="R11" t="n">
         <v>4559.031907113889</v>
@@ -5118,28 +5118,28 @@
         <v>91.18063814227779</v>
       </c>
       <c r="J12" t="n">
-        <v>91.18063814227779</v>
+        <v>225.9082523017139</v>
       </c>
       <c r="K12" t="n">
-        <v>399.6064145643362</v>
+        <v>534.3340287237722</v>
       </c>
       <c r="L12" t="n">
-        <v>860.6454742238227</v>
+        <v>995.3730883832586</v>
       </c>
       <c r="M12" t="n">
-        <v>1418.013179211129</v>
+        <v>1411.790840458488</v>
       </c>
       <c r="N12" t="n">
-        <v>1418.013179211129</v>
+        <v>1411.790840458488</v>
       </c>
       <c r="O12" t="n">
-        <v>1932.352112742243</v>
+        <v>1926.129773989602</v>
       </c>
       <c r="P12" t="n">
-        <v>2325.821385579055</v>
+        <v>2319.599046826414</v>
       </c>
       <c r="Q12" t="n">
-        <v>2538.925977961336</v>
+        <v>2532.703639208694</v>
       </c>
       <c r="R12" t="n">
         <v>2559.539024834455</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.2780663038689</v>
+        <v>599.0794416739545</v>
       </c>
       <c r="C13" t="n">
-        <v>381.3957690297388</v>
+        <v>440.1971443998244</v>
       </c>
       <c r="D13" t="n">
-        <v>248.4579261606093</v>
+        <v>300.1343906412656</v>
       </c>
       <c r="E13" t="n">
-        <v>248.4579261606093</v>
+        <v>300.1343906412656</v>
       </c>
       <c r="F13" t="n">
-        <v>248.4579261606093</v>
+        <v>300.1343906412656</v>
       </c>
       <c r="G13" t="n">
-        <v>91.18063814227779</v>
+        <v>300.1343906412656</v>
       </c>
       <c r="H13" t="n">
-        <v>91.18063814227779</v>
+        <v>167.2755110420173</v>
       </c>
       <c r="I13" t="n">
         <v>91.18063814227779</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2258.201711099185</v>
+        <v>2258.201711099186</v>
       </c>
       <c r="C14" t="n">
-        <v>1899.29307981255</v>
+        <v>1899.293079812551</v>
       </c>
       <c r="D14" t="n">
-        <v>1551.081266859576</v>
+        <v>1551.081266859578</v>
       </c>
       <c r="E14" t="n">
-        <v>1175.346899915109</v>
+        <v>1175.34689991511</v>
       </c>
       <c r="F14" t="n">
         <v>774.4148807792797</v>
@@ -5276,22 +5276,22 @@
         <v>91.18063814227779</v>
       </c>
       <c r="J14" t="n">
-        <v>348.9832359277574</v>
+        <v>516.3888849481104</v>
       </c>
       <c r="K14" t="n">
-        <v>786.1010198248302</v>
+        <v>953.5066688451832</v>
       </c>
       <c r="L14" t="n">
-        <v>1365.286045205561</v>
+        <v>1532.691694225914</v>
       </c>
       <c r="M14" t="n">
-        <v>2041.410420392699</v>
+        <v>2269.995870635951</v>
       </c>
       <c r="N14" t="n">
-        <v>2733.08900321547</v>
+        <v>2961.674453458721</v>
       </c>
       <c r="O14" t="n">
-        <v>3372.886214032134</v>
+        <v>3601.471664275386</v>
       </c>
       <c r="P14" t="n">
         <v>4113.022780616836</v>
@@ -5309,19 +5309,19 @@
         <v>4285.379062113449</v>
       </c>
       <c r="U14" t="n">
-        <v>4041.968755744999</v>
+        <v>4041.968755745</v>
       </c>
       <c r="V14" t="n">
-        <v>3720.959754055205</v>
+        <v>3720.959754055206</v>
       </c>
       <c r="W14" t="n">
-        <v>3378.244984438868</v>
+        <v>3378.244984438869</v>
       </c>
       <c r="X14" t="n">
-        <v>3014.833111831565</v>
+        <v>3014.833111831566</v>
       </c>
       <c r="Y14" t="n">
-        <v>2634.74766550953</v>
+        <v>2634.747665509531</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>91.18063814227779</v>
       </c>
       <c r="J15" t="n">
-        <v>199.409122502464</v>
+        <v>225.9082523017139</v>
       </c>
       <c r="K15" t="n">
-        <v>507.8348989245223</v>
+        <v>227.1605197195669</v>
       </c>
       <c r="L15" t="n">
-        <v>507.8348989245223</v>
+        <v>688.1995793790534</v>
       </c>
       <c r="M15" t="n">
-        <v>1065.202603911829</v>
+        <v>1245.56728436636</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.730818466529</v>
+        <v>1832.09549892106</v>
       </c>
       <c r="O15" t="n">
-        <v>2166.069751997643</v>
+        <v>2346.434432452174</v>
       </c>
       <c r="P15" t="n">
-        <v>2559.539024834455</v>
+        <v>2346.434432452174</v>
       </c>
       <c r="Q15" t="n">
         <v>2559.539024834455</v>
@@ -5413,19 +5413,19 @@
         <v>540.2780663038689</v>
       </c>
       <c r="C16" t="n">
-        <v>540.2780663038689</v>
+        <v>381.3957690297388</v>
       </c>
       <c r="D16" t="n">
-        <v>540.2780663038689</v>
+        <v>241.3330152711799</v>
       </c>
       <c r="E16" t="n">
-        <v>518.1528676039911</v>
+        <v>103.4738073425637</v>
       </c>
       <c r="F16" t="n">
-        <v>381.3168057598576</v>
+        <v>103.4738073425637</v>
       </c>
       <c r="G16" t="n">
-        <v>224.0395177415261</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="H16" t="n">
         <v>91.18063814227779</v>
@@ -5495,22 +5495,22 @@
         <v>1899.293079812551</v>
       </c>
       <c r="D17" t="n">
-        <v>1551.081266859577</v>
+        <v>1551.081266859578</v>
       </c>
       <c r="E17" t="n">
         <v>1175.34689991511</v>
       </c>
       <c r="F17" t="n">
-        <v>774.4148807792794</v>
+        <v>774.4148807792797</v>
       </c>
       <c r="G17" t="n">
-        <v>370.2248750772682</v>
+        <v>370.2248750772684</v>
       </c>
       <c r="H17" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="I17" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J17" t="n">
         <v>348.9832359277574</v>
@@ -5528,16 +5528,16 @@
         <v>2733.08900321547</v>
       </c>
       <c r="O17" t="n">
-        <v>3601.471664275387</v>
+        <v>3372.886214032134</v>
       </c>
       <c r="P17" t="n">
-        <v>4113.022780616837</v>
+        <v>4113.022780616836</v>
       </c>
       <c r="Q17" t="n">
-        <v>4449.003618323626</v>
+        <v>4449.003618323625</v>
       </c>
       <c r="R17" t="n">
-        <v>4559.03190711389</v>
+        <v>4559.031907113889</v>
       </c>
       <c r="S17" t="n">
         <v>4477.675907931884</v>
@@ -5546,16 +5546,16 @@
         <v>4285.379062113449</v>
       </c>
       <c r="U17" t="n">
-        <v>4041.968755745</v>
+        <v>4041.968755744999</v>
       </c>
       <c r="V17" t="n">
-        <v>3720.959754055206</v>
+        <v>3720.959754055205</v>
       </c>
       <c r="W17" t="n">
         <v>3378.244984438869</v>
       </c>
       <c r="X17" t="n">
-        <v>3014.833111831565</v>
+        <v>3014.833111831566</v>
       </c>
       <c r="Y17" t="n">
         <v>2634.747665509531</v>
@@ -5586,34 +5586,34 @@
         <v>181.1449427715862</v>
       </c>
       <c r="H18" t="n">
-        <v>94.92456737995629</v>
+        <v>94.92456737995627</v>
       </c>
       <c r="I18" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J18" t="n">
-        <v>91.1806381422778</v>
+        <v>225.9082523017139</v>
       </c>
       <c r="K18" t="n">
-        <v>91.1806381422778</v>
+        <v>225.9082523017139</v>
       </c>
       <c r="L18" t="n">
-        <v>294.7303065422417</v>
+        <v>267.8949209164813</v>
       </c>
       <c r="M18" t="n">
-        <v>852.098011529548</v>
+        <v>825.2626259037876</v>
       </c>
       <c r="N18" t="n">
-        <v>1438.626226084248</v>
+        <v>1411.790840458488</v>
       </c>
       <c r="O18" t="n">
-        <v>1952.965159615362</v>
+        <v>1926.129773989602</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.434432452174</v>
+        <v>2319.599046826414</v>
       </c>
       <c r="Q18" t="n">
-        <v>2559.539024834455</v>
+        <v>2532.703639208694</v>
       </c>
       <c r="R18" t="n">
         <v>2559.539024834455</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>540.2780663038689</v>
+        <v>758.1303661072286</v>
       </c>
       <c r="C19" t="n">
-        <v>381.3957690297388</v>
+        <v>599.2480688330985</v>
       </c>
       <c r="D19" t="n">
-        <v>381.3957690297388</v>
+        <v>599.2480688330985</v>
       </c>
       <c r="E19" t="n">
-        <v>381.3957690297388</v>
+        <v>461.3888609044823</v>
       </c>
       <c r="F19" t="n">
-        <v>381.3168057598576</v>
+        <v>324.5527990603488</v>
       </c>
       <c r="G19" t="n">
-        <v>224.0395177415261</v>
+        <v>167.2755110420173</v>
       </c>
       <c r="H19" t="n">
-        <v>91.1806381422778</v>
+        <v>167.2755110420173</v>
       </c>
       <c r="I19" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J19" t="n">
         <v>171.9107509490811</v>
@@ -5677,7 +5677,7 @@
         <v>428.0729333724062</v>
       </c>
       <c r="L19" t="n">
-        <v>808.643092741586</v>
+        <v>808.6430927415859</v>
       </c>
       <c r="M19" t="n">
         <v>1219.75443779727</v>
@@ -5710,13 +5710,13 @@
         <v>1419.910288597509</v>
       </c>
       <c r="W19" t="n">
-        <v>1140.547004214325</v>
+        <v>1358.399304017685</v>
       </c>
       <c r="X19" t="n">
-        <v>922.6113389700849</v>
+        <v>1140.463638773445</v>
       </c>
       <c r="Y19" t="n">
-        <v>711.8726454803317</v>
+        <v>929.7249452836915</v>
       </c>
     </row>
     <row r="20">
@@ -5726,55 +5726,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2258.201711099186</v>
+        <v>2258.201711099185</v>
       </c>
       <c r="C20" t="n">
         <v>1899.293079812551</v>
       </c>
       <c r="D20" t="n">
-        <v>1551.081266859577</v>
+        <v>1551.081266859578</v>
       </c>
       <c r="E20" t="n">
         <v>1175.34689991511</v>
       </c>
       <c r="F20" t="n">
-        <v>774.414880779279</v>
+        <v>774.4148807792797</v>
       </c>
       <c r="G20" t="n">
-        <v>370.2248750772678</v>
+        <v>370.2248750772684</v>
       </c>
       <c r="H20" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="I20" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J20" t="n">
-        <v>516.3888849481104</v>
+        <v>348.9832359277574</v>
       </c>
       <c r="K20" t="n">
-        <v>953.5066688451832</v>
+        <v>949.6272143938291</v>
       </c>
       <c r="L20" t="n">
-        <v>1532.691694225914</v>
+        <v>1528.81223977456</v>
       </c>
       <c r="M20" t="n">
-        <v>2208.816069413052</v>
+        <v>2204.936614961698</v>
       </c>
       <c r="N20" t="n">
-        <v>2900.494652235822</v>
+        <v>2896.615197784468</v>
       </c>
       <c r="O20" t="n">
-        <v>3540.291863052486</v>
+        <v>3536.412408601132</v>
       </c>
       <c r="P20" t="n">
-        <v>4051.842979393937</v>
+        <v>4047.963524942583</v>
       </c>
       <c r="Q20" t="n">
-        <v>4387.823817100726</v>
+        <v>4383.944362649372</v>
       </c>
       <c r="R20" t="n">
-        <v>4559.03190711389</v>
+        <v>4559.031907113889</v>
       </c>
       <c r="S20" t="n">
         <v>4477.675907931884</v>
@@ -5783,10 +5783,10 @@
         <v>4285.379062113449</v>
       </c>
       <c r="U20" t="n">
-        <v>4041.968755745</v>
+        <v>4041.968755744999</v>
       </c>
       <c r="V20" t="n">
-        <v>3720.959754055206</v>
+        <v>3720.959754055205</v>
       </c>
       <c r="W20" t="n">
         <v>3378.244984438868</v>
@@ -5795,7 +5795,7 @@
         <v>3014.833111831565</v>
       </c>
       <c r="Y20" t="n">
-        <v>2634.747665509531</v>
+        <v>2634.74766550953</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>181.1449427715862</v>
       </c>
       <c r="H21" t="n">
-        <v>94.92456737995629</v>
+        <v>94.92456737995627</v>
       </c>
       <c r="I21" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J21" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="K21" t="n">
-        <v>91.1806381422778</v>
+        <v>399.6064145643362</v>
       </c>
       <c r="L21" t="n">
-        <v>267.8949209164813</v>
+        <v>860.6454742238227</v>
       </c>
       <c r="M21" t="n">
-        <v>825.2626259037876</v>
+        <v>1418.013179211129</v>
       </c>
       <c r="N21" t="n">
-        <v>1411.790840458488</v>
+        <v>1926.129773989602</v>
       </c>
       <c r="O21" t="n">
         <v>1926.129773989602</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.2780663038689</v>
+        <v>814.8943728067375</v>
       </c>
       <c r="C22" t="n">
-        <v>381.3957690297388</v>
+        <v>656.0120755326074</v>
       </c>
       <c r="D22" t="n">
-        <v>381.3168057598576</v>
+        <v>656.0120755326074</v>
       </c>
       <c r="E22" t="n">
-        <v>381.3168057598576</v>
+        <v>518.1528676039911</v>
       </c>
       <c r="F22" t="n">
         <v>381.3168057598576</v>
@@ -5902,10 +5902,10 @@
         <v>224.0395177415261</v>
       </c>
       <c r="H22" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="I22" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J22" t="n">
         <v>171.9107509490811</v>
@@ -5914,7 +5914,7 @@
         <v>428.0729333724062</v>
       </c>
       <c r="L22" t="n">
-        <v>808.643092741586</v>
+        <v>808.6430927415859</v>
       </c>
       <c r="M22" t="n">
         <v>1219.75443779727</v>
@@ -5947,13 +5947,13 @@
         <v>1419.910288597509</v>
       </c>
       <c r="W22" t="n">
-        <v>1140.547004214325</v>
+        <v>1197.227645472954</v>
       </c>
       <c r="X22" t="n">
-        <v>922.6113389700849</v>
+        <v>1197.227645472954</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.8726454803317</v>
+        <v>986.4889519832003</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2258.201711099186</v>
+        <v>2258.201711099185</v>
       </c>
       <c r="C23" t="n">
-        <v>1899.293079812551</v>
+        <v>1899.29307981255</v>
       </c>
       <c r="D23" t="n">
         <v>1551.081266859578</v>
@@ -5981,37 +5981,37 @@
         <v>370.2248750772684</v>
       </c>
       <c r="H23" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="I23" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J23" t="n">
-        <v>516.3888849481104</v>
+        <v>348.9832359277574</v>
       </c>
       <c r="K23" t="n">
-        <v>953.5066688451832</v>
+        <v>1014.686470068082</v>
       </c>
       <c r="L23" t="n">
-        <v>1532.691694225914</v>
+        <v>1593.871495448813</v>
       </c>
       <c r="M23" t="n">
-        <v>2208.816069413052</v>
+        <v>2269.995870635951</v>
       </c>
       <c r="N23" t="n">
-        <v>2900.494652235822</v>
+        <v>2961.674453458721</v>
       </c>
       <c r="O23" t="n">
-        <v>3540.291863052486</v>
+        <v>3601.471664275386</v>
       </c>
       <c r="P23" t="n">
-        <v>4051.842979393937</v>
+        <v>4113.022780616836</v>
       </c>
       <c r="Q23" t="n">
-        <v>4387.823817100726</v>
+        <v>4449.003618323625</v>
       </c>
       <c r="R23" t="n">
-        <v>4559.03190711389</v>
+        <v>4559.031907113889</v>
       </c>
       <c r="S23" t="n">
         <v>4477.675907931884</v>
@@ -6020,19 +6020,19 @@
         <v>4285.379062113449</v>
       </c>
       <c r="U23" t="n">
-        <v>4041.968755745</v>
+        <v>4041.968755744999</v>
       </c>
       <c r="V23" t="n">
-        <v>3720.959754055206</v>
+        <v>3720.959754055205</v>
       </c>
       <c r="W23" t="n">
-        <v>3378.244984438869</v>
+        <v>3378.244984438868</v>
       </c>
       <c r="X23" t="n">
-        <v>3014.833111831566</v>
+        <v>3014.833111831565</v>
       </c>
       <c r="Y23" t="n">
-        <v>2634.747665509531</v>
+        <v>2634.74766550953</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>181.1449427715862</v>
       </c>
       <c r="H24" t="n">
-        <v>94.92456737995629</v>
+        <v>94.92456737995627</v>
       </c>
       <c r="I24" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J24" t="n">
-        <v>225.9082523017139</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="K24" t="n">
-        <v>225.9082523017139</v>
+        <v>399.6064145643362</v>
       </c>
       <c r="L24" t="n">
-        <v>686.9473119612003</v>
+        <v>860.6454742238227</v>
       </c>
       <c r="M24" t="n">
-        <v>1244.315016948507</v>
+        <v>1418.013179211129</v>
       </c>
       <c r="N24" t="n">
-        <v>1830.843231503206</v>
+        <v>1418.013179211129</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.182165034321</v>
+        <v>1926.129773989602</v>
       </c>
       <c r="P24" t="n">
-        <v>2559.539024834455</v>
+        <v>2319.599046826414</v>
       </c>
       <c r="Q24" t="n">
-        <v>2559.539024834455</v>
+        <v>2532.703639208694</v>
       </c>
       <c r="R24" t="n">
         <v>2559.539024834455</v>
@@ -6127,22 +6127,22 @@
         <v>381.3957690297388</v>
       </c>
       <c r="D25" t="n">
-        <v>248.4579261606093</v>
+        <v>241.3330152711799</v>
       </c>
       <c r="E25" t="n">
-        <v>248.4579261606093</v>
+        <v>241.3330152711799</v>
       </c>
       <c r="F25" t="n">
-        <v>248.4579261606093</v>
+        <v>241.3330152711799</v>
       </c>
       <c r="G25" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="H25" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="I25" t="n">
-        <v>91.1806381422778</v>
+        <v>91.18063814227779</v>
       </c>
       <c r="J25" t="n">
         <v>171.9107509490811</v>
@@ -6151,7 +6151,7 @@
         <v>428.0729333724062</v>
       </c>
       <c r="L25" t="n">
-        <v>808.643092741586</v>
+        <v>808.6430927415859</v>
       </c>
       <c r="M25" t="n">
         <v>1219.75443779727</v>
@@ -6242,7 +6242,7 @@
         <v>3375.963934130229</v>
       </c>
       <c r="P26" t="n">
-        <v>3991.657689094028</v>
+        <v>4201.849529847334</v>
       </c>
       <c r="Q26" t="n">
         <v>4537.830367554123</v>
@@ -6303,28 +6303,28 @@
         <v>94.25835824037279</v>
       </c>
       <c r="J27" t="n">
-        <v>228.9859723998089</v>
+        <v>94.25835824037279</v>
       </c>
       <c r="K27" t="n">
-        <v>537.4117488218673</v>
+        <v>402.6841346624312</v>
       </c>
       <c r="L27" t="n">
-        <v>537.4117488218673</v>
+        <v>863.7231943219176</v>
       </c>
       <c r="M27" t="n">
-        <v>855.1757316276431</v>
+        <v>1421.090899309224</v>
       </c>
       <c r="N27" t="n">
-        <v>1441.703946182343</v>
+        <v>1421.090899309224</v>
       </c>
       <c r="O27" t="n">
-        <v>1956.042879713457</v>
+        <v>1935.429832840338</v>
       </c>
       <c r="P27" t="n">
-        <v>2349.512152550269</v>
+        <v>2322.676766924509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.61674493255</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R27" t="n">
         <v>2562.61674493255</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.6887737140786</v>
+        <v>411.7061713248169</v>
       </c>
       <c r="C28" t="n">
-        <v>386.7525907861717</v>
+        <v>411.7061713248169</v>
       </c>
       <c r="D28" t="n">
-        <v>386.7525907861717</v>
+        <v>261.5895319124812</v>
       </c>
       <c r="E28" t="n">
-        <v>238.8394972037786</v>
+        <v>261.5895319124812</v>
       </c>
       <c r="F28" t="n">
-        <v>94.25835824037279</v>
+        <v>261.5895319124812</v>
       </c>
       <c r="G28" t="n">
         <v>94.25835824037279</v>
@@ -6415,19 +6415,19 @@
         <v>1837.655156348112</v>
       </c>
       <c r="U28" t="n">
-        <v>1548.572561998474</v>
+        <v>1586.238424439452</v>
       </c>
       <c r="V28" t="n">
-        <v>1293.888073792587</v>
+        <v>1331.553936233565</v>
       </c>
       <c r="W28" t="n">
-        <v>1004.470903755626</v>
+        <v>1042.136766196604</v>
       </c>
       <c r="X28" t="n">
-        <v>776.4813528576087</v>
+        <v>814.1472152985867</v>
       </c>
       <c r="Y28" t="n">
-        <v>555.6887737140786</v>
+        <v>593.3546361550566</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2331.656630773719</v>
+        <v>2331.656630773718</v>
       </c>
       <c r="C29" t="n">
-        <v>1962.694113833308</v>
+        <v>1962.694113833307</v>
       </c>
       <c r="D29" t="n">
-        <v>1604.428415226558</v>
+        <v>1604.428415226557</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.640162628314</v>
+        <v>1218.640162628313</v>
       </c>
       <c r="F29" t="n">
-        <v>807.6542578387061</v>
+        <v>807.6542578387049</v>
       </c>
       <c r="G29" t="n">
         <v>393.410366482917</v>
@@ -6461,28 +6461,28 @@
         <v>94.25835824037279</v>
       </c>
       <c r="J29" t="n">
-        <v>456.2035946482013</v>
+        <v>352.0609560258524</v>
       </c>
       <c r="K29" t="n">
-        <v>893.3213785452741</v>
+        <v>789.1787399229252</v>
       </c>
       <c r="L29" t="n">
-        <v>1472.506403926005</v>
+        <v>1368.363765303656</v>
       </c>
       <c r="M29" t="n">
-        <v>2148.630779113143</v>
+        <v>2213.690034787395</v>
       </c>
       <c r="N29" t="n">
-        <v>2840.309361935913</v>
+        <v>2905.368617610166</v>
       </c>
       <c r="O29" t="n">
-        <v>3480.106572752577</v>
+        <v>3545.16582842683</v>
       </c>
       <c r="P29" t="n">
-        <v>3991.657689094028</v>
+        <v>4056.71694476828</v>
       </c>
       <c r="Q29" t="n">
-        <v>4537.830367554123</v>
+        <v>4602.889623228375</v>
       </c>
       <c r="R29" t="n">
         <v>4712.917912018639</v>
@@ -6494,19 +6494,19 @@
         <v>4419.157295710645</v>
       </c>
       <c r="U29" t="n">
-        <v>4165.693103688418</v>
+        <v>4165.693103688417</v>
       </c>
       <c r="V29" t="n">
-        <v>3834.630216344847</v>
+        <v>3834.630216344846</v>
       </c>
       <c r="W29" t="n">
-        <v>3481.861561074733</v>
+        <v>3481.861561074732</v>
       </c>
       <c r="X29" t="n">
-        <v>3108.395802813653</v>
+        <v>3108.395802813652</v>
       </c>
       <c r="Y29" t="n">
-        <v>2718.256470837841</v>
+        <v>2718.25647083784</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>94.25835824037279</v>
       </c>
       <c r="J30" t="n">
-        <v>94.25835824037279</v>
+        <v>228.9859723998089</v>
       </c>
       <c r="K30" t="n">
-        <v>297.8080266403368</v>
+        <v>367.3012863423963</v>
       </c>
       <c r="L30" t="n">
-        <v>297.8080266403368</v>
+        <v>828.3403460018827</v>
       </c>
       <c r="M30" t="n">
-        <v>855.1757316276431</v>
+        <v>828.3403460018827</v>
       </c>
       <c r="N30" t="n">
-        <v>1441.703946182343</v>
+        <v>1414.868560556583</v>
       </c>
       <c r="O30" t="n">
-        <v>1956.042879713457</v>
+        <v>1929.207494087697</v>
       </c>
       <c r="P30" t="n">
-        <v>2349.512152550269</v>
+        <v>2322.676766924509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2562.61674493255</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R30" t="n">
         <v>2562.61674493255</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.2491214094484</v>
+        <v>555.6887737140786</v>
       </c>
       <c r="C31" t="n">
-        <v>559.2491214094484</v>
+        <v>555.6887737140786</v>
       </c>
       <c r="D31" t="n">
-        <v>409.1324819971127</v>
+        <v>405.5721343017428</v>
       </c>
       <c r="E31" t="n">
-        <v>261.5895319124812</v>
+        <v>257.6590407193497</v>
       </c>
       <c r="F31" t="n">
-        <v>261.5895319124812</v>
+        <v>180.4071167938891</v>
       </c>
       <c r="G31" t="n">
-        <v>94.25835824037279</v>
+        <v>180.4071167938891</v>
       </c>
       <c r="H31" t="n">
-        <v>94.25835824037279</v>
+        <v>180.4071167938891</v>
       </c>
       <c r="I31" t="n">
         <v>94.25835824037279</v>
@@ -6646,25 +6646,25 @@
         <v>2243.042569867912</v>
       </c>
       <c r="S31" t="n">
-        <v>2243.042569867912</v>
+        <v>2057.833757342302</v>
       </c>
       <c r="T31" t="n">
-        <v>2022.863968873721</v>
+        <v>1837.655156348112</v>
       </c>
       <c r="U31" t="n">
-        <v>1733.781374524083</v>
+        <v>1548.572561998474</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.096886318196</v>
+        <v>1293.888073792587</v>
       </c>
       <c r="W31" t="n">
-        <v>1189.679716281236</v>
+        <v>1004.470903755626</v>
       </c>
       <c r="X31" t="n">
-        <v>961.6901653832183</v>
+        <v>776.4813528576087</v>
       </c>
       <c r="Y31" t="n">
-        <v>740.8975862396882</v>
+        <v>555.6887737140786</v>
       </c>
     </row>
     <row r="32">
@@ -6695,34 +6695,34 @@
         <v>104.3122438941496</v>
       </c>
       <c r="I32" t="n">
-        <v>94.25835824037279</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="J32" t="n">
-        <v>519.4666050462055</v>
+        <v>352.0609560258524</v>
       </c>
       <c r="K32" t="n">
-        <v>956.5843889432783</v>
+        <v>789.1787399229252</v>
       </c>
       <c r="L32" t="n">
-        <v>1535.769414324009</v>
+        <v>1368.363765303656</v>
       </c>
       <c r="M32" t="n">
-        <v>2211.893789511148</v>
+        <v>2044.488140490794</v>
       </c>
       <c r="N32" t="n">
-        <v>2903.572372333918</v>
+        <v>2736.166723313564</v>
       </c>
       <c r="O32" t="n">
-        <v>3543.369583150582</v>
+        <v>3375.963934130229</v>
       </c>
       <c r="P32" t="n">
-        <v>4054.920699492032</v>
+        <v>4201.849529847332</v>
       </c>
       <c r="Q32" t="n">
-        <v>4601.093377952127</v>
+        <v>4537.830367554121</v>
       </c>
       <c r="R32" t="n">
-        <v>4712.917912018639</v>
+        <v>4712.917912018638</v>
       </c>
       <c r="S32" t="n">
         <v>4621.508027182856</v>
@@ -6753,67 +6753,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>949.3018969174694</v>
+        <v>949.3018969174692</v>
       </c>
       <c r="C33" t="n">
-        <v>774.8488676363424</v>
+        <v>774.8488676363422</v>
       </c>
       <c r="D33" t="n">
-        <v>625.9144579750912</v>
+        <v>625.914457975091</v>
       </c>
       <c r="E33" t="n">
-        <v>466.6770029696356</v>
+        <v>466.6770029696355</v>
       </c>
       <c r="F33" t="n">
-        <v>320.1424449965206</v>
+        <v>320.1424449965205</v>
       </c>
       <c r="G33" t="n">
-        <v>184.2226628696812</v>
+        <v>184.2226628696811</v>
       </c>
       <c r="H33" t="n">
-        <v>98.00228747805127</v>
+        <v>98.00228747805126</v>
       </c>
       <c r="I33" t="n">
-        <v>94.25835824037279</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="J33" t="n">
         <v>228.9859723998089</v>
       </c>
       <c r="K33" t="n">
-        <v>228.9859723998089</v>
+        <v>537.4117488218673</v>
       </c>
       <c r="L33" t="n">
-        <v>297.8080266403368</v>
+        <v>998.4508084813538</v>
       </c>
       <c r="M33" t="n">
-        <v>855.1757316276431</v>
+        <v>1342.679279532997</v>
       </c>
       <c r="N33" t="n">
-        <v>1441.703946182343</v>
+        <v>1929.207494087696</v>
       </c>
       <c r="O33" t="n">
-        <v>1956.042879713457</v>
+        <v>1929.207494087696</v>
       </c>
       <c r="P33" t="n">
-        <v>2349.512152550269</v>
+        <v>2322.676766924508</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.61674493255</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.61674493255</v>
+        <v>2562.616744932549</v>
       </c>
       <c r="S33" t="n">
         <v>2441.41329659137</v>
       </c>
       <c r="T33" t="n">
-        <v>2250.557179072991</v>
+        <v>2250.55717907299</v>
       </c>
       <c r="U33" t="n">
         <v>2022.518497867968</v>
       </c>
       <c r="V33" t="n">
-        <v>1787.366389636226</v>
+        <v>1787.366389636225</v>
       </c>
       <c r="W33" t="n">
         <v>1533.129032908024</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>430.5257148403881</v>
+        <v>374.0403088838389</v>
       </c>
       <c r="C34" t="n">
-        <v>261.5895319124812</v>
+        <v>244.3749976527085</v>
       </c>
       <c r="D34" t="n">
-        <v>261.5895319124812</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="E34" t="n">
-        <v>261.5895319124812</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="F34" t="n">
-        <v>261.5895319124812</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="G34" t="n">
-        <v>94.25835824037279</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="H34" t="n">
-        <v>94.25835824037279</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="I34" t="n">
-        <v>94.25835824037279</v>
+        <v>94.25835824037277</v>
       </c>
       <c r="J34" t="n">
         <v>165.1346577179094</v>
@@ -6889,19 +6889,19 @@
         <v>1837.655156348112</v>
       </c>
       <c r="U34" t="n">
-        <v>1605.057967955023</v>
+        <v>1548.572561998474</v>
       </c>
       <c r="V34" t="n">
-        <v>1350.373479749136</v>
+        <v>1293.888073792587</v>
       </c>
       <c r="W34" t="n">
-        <v>1060.956309712175</v>
+        <v>1004.470903755626</v>
       </c>
       <c r="X34" t="n">
-        <v>832.966758814158</v>
+        <v>776.4813528576087</v>
       </c>
       <c r="Y34" t="n">
-        <v>612.1741796706278</v>
+        <v>555.6887737140786</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2331.656630773719</v>
+        <v>2331.656630773718</v>
       </c>
       <c r="C35" t="n">
-        <v>1962.694113833308</v>
+        <v>1962.694113833307</v>
       </c>
       <c r="D35" t="n">
         <v>1604.428415226557</v>
@@ -6923,7 +6923,7 @@
         <v>1218.640162628313</v>
       </c>
       <c r="F35" t="n">
-        <v>807.6542578387057</v>
+        <v>807.654257838705</v>
       </c>
       <c r="G35" t="n">
         <v>393.410366482917</v>
@@ -6938,25 +6938,25 @@
         <v>519.4666050462055</v>
       </c>
       <c r="K35" t="n">
-        <v>1103.513219298578</v>
+        <v>1168.572474972831</v>
       </c>
       <c r="L35" t="n">
-        <v>1682.698244679309</v>
+        <v>1747.757500353562</v>
       </c>
       <c r="M35" t="n">
-        <v>2358.822619866447</v>
+        <v>2423.8818755407</v>
       </c>
       <c r="N35" t="n">
-        <v>3050.501202689217</v>
+        <v>3115.56045836347</v>
       </c>
       <c r="O35" t="n">
-        <v>3690.298413505881</v>
+        <v>3755.357669180135</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.849529847332</v>
+        <v>4266.908785521585</v>
       </c>
       <c r="Q35" t="n">
-        <v>4537.830367554121</v>
+        <v>4602.889623228374</v>
       </c>
       <c r="R35" t="n">
         <v>4712.917912018638</v>
@@ -6968,19 +6968,19 @@
         <v>4419.157295710644</v>
       </c>
       <c r="U35" t="n">
-        <v>4165.693103688418</v>
+        <v>4165.693103688417</v>
       </c>
       <c r="V35" t="n">
-        <v>3834.630216344847</v>
+        <v>3834.630216344846</v>
       </c>
       <c r="W35" t="n">
-        <v>3481.861561074733</v>
+        <v>3481.861561074732</v>
       </c>
       <c r="X35" t="n">
-        <v>3108.395802813653</v>
+        <v>3108.395802813652</v>
       </c>
       <c r="Y35" t="n">
-        <v>2718.256470837841</v>
+        <v>2718.25647083784</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>228.9859723998089</v>
       </c>
       <c r="K36" t="n">
-        <v>228.9859723998089</v>
+        <v>537.4117488218673</v>
       </c>
       <c r="L36" t="n">
-        <v>297.8080266403364</v>
+        <v>785.3115745456903</v>
       </c>
       <c r="M36" t="n">
-        <v>855.1757316276427</v>
+        <v>1342.679279532997</v>
       </c>
       <c r="N36" t="n">
-        <v>1441.703946182343</v>
+        <v>1929.207494087696</v>
       </c>
       <c r="O36" t="n">
-        <v>1956.042879713457</v>
+        <v>1929.207494087696</v>
       </c>
       <c r="P36" t="n">
-        <v>2349.512152550269</v>
+        <v>2322.676766924508</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.616744932549</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R36" t="n">
         <v>2562.616744932549</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>573.4384800934132</v>
+        <v>620.3264689571604</v>
       </c>
       <c r="C37" t="n">
-        <v>404.5022971655063</v>
+        <v>620.3264689571604</v>
       </c>
       <c r="D37" t="n">
-        <v>404.5022971655063</v>
+        <v>470.2098295448246</v>
       </c>
       <c r="E37" t="n">
-        <v>404.5022971655063</v>
+        <v>470.2098295448246</v>
       </c>
       <c r="F37" t="n">
-        <v>404.5022971655063</v>
+        <v>323.3198820469142</v>
       </c>
       <c r="G37" t="n">
-        <v>237.1711234933979</v>
+        <v>323.3198820469142</v>
       </c>
       <c r="H37" t="n">
-        <v>94.25835824037277</v>
+        <v>180.4071167938891</v>
       </c>
       <c r="I37" t="n">
         <v>94.25835824037277</v>
@@ -7126,19 +7126,19 @@
         <v>1837.655156348112</v>
       </c>
       <c r="U37" t="n">
-        <v>1747.970733208048</v>
+        <v>1548.572561998474</v>
       </c>
       <c r="V37" t="n">
-        <v>1493.286245002161</v>
+        <v>1293.888073792587</v>
       </c>
       <c r="W37" t="n">
-        <v>1203.869074965201</v>
+        <v>1250.757063828948</v>
       </c>
       <c r="X37" t="n">
-        <v>975.8795240671831</v>
+        <v>1022.76751293093</v>
       </c>
       <c r="Y37" t="n">
-        <v>755.0869449236529</v>
+        <v>801.9749337874001</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2331.656630773718</v>
+        <v>2331.656630773719</v>
       </c>
       <c r="C38" t="n">
-        <v>1962.694113833307</v>
+        <v>1962.694113833308</v>
       </c>
       <c r="D38" t="n">
-        <v>1604.428415226556</v>
+        <v>1604.428415226557</v>
       </c>
       <c r="E38" t="n">
         <v>1218.640162628313</v>
       </c>
       <c r="F38" t="n">
-        <v>807.654257838705</v>
+        <v>807.6542578387057</v>
       </c>
       <c r="G38" t="n">
-        <v>393.410366482917</v>
+        <v>393.4103664829177</v>
       </c>
       <c r="H38" t="n">
         <v>104.3122438941496</v>
       </c>
       <c r="I38" t="n">
-        <v>94.25835824037277</v>
+        <v>94.25835824037279</v>
       </c>
       <c r="J38" t="n">
         <v>352.0609560258524</v>
@@ -7184,19 +7184,19 @@
         <v>2044.488140490794</v>
       </c>
       <c r="N38" t="n">
-        <v>2736.166723313564</v>
+        <v>3115.560458363471</v>
       </c>
       <c r="O38" t="n">
-        <v>3375.963934130229</v>
+        <v>3755.357669180135</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.849529847332</v>
+        <v>4266.908785521586</v>
       </c>
       <c r="Q38" t="n">
-        <v>4537.830367554121</v>
+        <v>4602.889623228375</v>
       </c>
       <c r="R38" t="n">
-        <v>4712.917912018638</v>
+        <v>4712.917912018639</v>
       </c>
       <c r="S38" t="n">
         <v>4621.508027182856</v>
@@ -7205,19 +7205,19 @@
         <v>4419.157295710644</v>
       </c>
       <c r="U38" t="n">
-        <v>4165.693103688417</v>
+        <v>4165.693103688418</v>
       </c>
       <c r="V38" t="n">
-        <v>3834.630216344846</v>
+        <v>3834.630216344847</v>
       </c>
       <c r="W38" t="n">
-        <v>3481.861561074732</v>
+        <v>3481.861561074733</v>
       </c>
       <c r="X38" t="n">
-        <v>3108.395802813652</v>
+        <v>3108.395802813653</v>
       </c>
       <c r="Y38" t="n">
-        <v>2718.25647083784</v>
+        <v>2718.256470837841</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7227,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>949.3018969174692</v>
+        <v>949.3018969174694</v>
       </c>
       <c r="C39" t="n">
-        <v>774.8488676363422</v>
+        <v>774.8488676363424</v>
       </c>
       <c r="D39" t="n">
-        <v>625.914457975091</v>
+        <v>625.9144579750912</v>
       </c>
       <c r="E39" t="n">
-        <v>466.6770029696355</v>
+        <v>466.6770029696356</v>
       </c>
       <c r="F39" t="n">
-        <v>320.1424449965205</v>
+        <v>320.1424449965206</v>
       </c>
       <c r="G39" t="n">
-        <v>184.2226628696811</v>
+        <v>184.2226628696812</v>
       </c>
       <c r="H39" t="n">
-        <v>98.00228747805126</v>
+        <v>98.00228747805127</v>
       </c>
       <c r="I39" t="n">
-        <v>94.25835824037277</v>
+        <v>94.25835824037279</v>
       </c>
       <c r="J39" t="n">
-        <v>94.25835824037277</v>
+        <v>94.25835824037279</v>
       </c>
       <c r="K39" t="n">
-        <v>94.25835824037277</v>
+        <v>402.6841346624312</v>
       </c>
       <c r="L39" t="n">
-        <v>555.2974178998592</v>
+        <v>863.7231943219176</v>
       </c>
       <c r="M39" t="n">
-        <v>1112.665122887166</v>
+        <v>1342.679279532997</v>
       </c>
       <c r="N39" t="n">
-        <v>1699.193337441865</v>
+        <v>1929.207494087697</v>
       </c>
       <c r="O39" t="n">
-        <v>2213.53227097298</v>
+        <v>1929.207494087697</v>
       </c>
       <c r="P39" t="n">
-        <v>2349.512152550269</v>
+        <v>2322.676766924509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.616744932549</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.616744932549</v>
+        <v>2562.61674493255</v>
       </c>
       <c r="S39" t="n">
         <v>2441.41329659137</v>
       </c>
       <c r="T39" t="n">
-        <v>2250.55717907299</v>
+        <v>2250.557179072991</v>
       </c>
       <c r="U39" t="n">
         <v>2022.518497867968</v>
       </c>
       <c r="V39" t="n">
-        <v>1787.366389636225</v>
+        <v>1787.366389636226</v>
       </c>
       <c r="W39" t="n">
         <v>1533.129032908024</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.7038780592652</v>
+        <v>470.2098295448246</v>
       </c>
       <c r="C40" t="n">
-        <v>640.7676951313583</v>
+        <v>470.2098295448246</v>
       </c>
       <c r="D40" t="n">
-        <v>490.6510557190226</v>
+        <v>470.2098295448246</v>
       </c>
       <c r="E40" t="n">
-        <v>490.6510557190226</v>
+        <v>470.2098295448246</v>
       </c>
       <c r="F40" t="n">
-        <v>490.6510557190226</v>
+        <v>323.3198820469142</v>
       </c>
       <c r="G40" t="n">
         <v>323.3198820469142</v>
@@ -7327,7 +7327,7 @@
         <v>180.4071167938891</v>
       </c>
       <c r="I40" t="n">
-        <v>94.25835824037277</v>
+        <v>94.25835824037279</v>
       </c>
       <c r="J40" t="n">
         <v>165.1346577179094</v>
@@ -7354,28 +7354,28 @@
         <v>2316.161709234093</v>
       </c>
       <c r="R40" t="n">
-        <v>2316.161709234093</v>
+        <v>2243.042569867912</v>
       </c>
       <c r="S40" t="n">
-        <v>2130.952896708483</v>
+        <v>2057.833757342302</v>
       </c>
       <c r="T40" t="n">
-        <v>1984.2361311739</v>
+        <v>1837.655156348112</v>
       </c>
       <c r="U40" t="n">
-        <v>1984.2361311739</v>
+        <v>1548.572561998474</v>
       </c>
       <c r="V40" t="n">
-        <v>1729.551642968013</v>
+        <v>1293.888073792587</v>
       </c>
       <c r="W40" t="n">
-        <v>1440.134472931052</v>
+        <v>1004.470903755626</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.144922033035</v>
+        <v>776.4813528576087</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.3523428895049</v>
+        <v>555.6887737140786</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2331.656630773718</v>
+        <v>2331.65663077372</v>
       </c>
       <c r="C41" t="n">
-        <v>1962.694113833306</v>
+        <v>1962.694113833308</v>
       </c>
       <c r="D41" t="n">
-        <v>1604.428415226556</v>
+        <v>1604.428415226557</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.640162628312</v>
+        <v>1218.640162628313</v>
       </c>
       <c r="F41" t="n">
-        <v>807.6542578387048</v>
+        <v>807.6542578387056</v>
       </c>
       <c r="G41" t="n">
-        <v>393.4103664829172</v>
+        <v>393.4103664829175</v>
       </c>
       <c r="H41" t="n">
-        <v>104.3122438941496</v>
+        <v>104.3122438941502</v>
       </c>
       <c r="I41" t="n">
         <v>94.25835824037279</v>
@@ -7412,25 +7412,25 @@
         <v>352.0609560258524</v>
       </c>
       <c r="K41" t="n">
-        <v>893.3213785452741</v>
+        <v>791.5802955227142</v>
       </c>
       <c r="L41" t="n">
-        <v>1472.506403926005</v>
+        <v>1370.765320903445</v>
       </c>
       <c r="M41" t="n">
-        <v>2148.630779113143</v>
+        <v>2046.889696090583</v>
       </c>
       <c r="N41" t="n">
-        <v>2840.309361935913</v>
+        <v>2738.568278913353</v>
       </c>
       <c r="O41" t="n">
-        <v>3480.106572752577</v>
+        <v>3755.357669180135</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.657689094028</v>
+        <v>4266.908785521586</v>
       </c>
       <c r="Q41" t="n">
-        <v>4537.830367554123</v>
+        <v>4602.889623228375</v>
       </c>
       <c r="R41" t="n">
         <v>4712.917912018639</v>
@@ -7439,22 +7439,22 @@
         <v>4621.508027182856</v>
       </c>
       <c r="T41" t="n">
-        <v>4419.157295710644</v>
+        <v>4419.157295710645</v>
       </c>
       <c r="U41" t="n">
-        <v>4165.693103688416</v>
+        <v>4165.693103688418</v>
       </c>
       <c r="V41" t="n">
-        <v>3834.630216344845</v>
+        <v>3834.630216344848</v>
       </c>
       <c r="W41" t="n">
-        <v>3481.861561074731</v>
+        <v>3481.861561074733</v>
       </c>
       <c r="X41" t="n">
-        <v>3108.395802813651</v>
+        <v>3108.395802813654</v>
       </c>
       <c r="Y41" t="n">
-        <v>2718.25647083784</v>
+        <v>2718.256470837842</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>94.25835824037279</v>
       </c>
       <c r="K42" t="n">
-        <v>94.25835824037279</v>
+        <v>402.6841346624312</v>
       </c>
       <c r="L42" t="n">
-        <v>297.8080266403368</v>
+        <v>484.0772333968571</v>
       </c>
       <c r="M42" t="n">
-        <v>855.1757316276431</v>
+        <v>1041.444938384163</v>
       </c>
       <c r="N42" t="n">
-        <v>1441.703946182343</v>
+        <v>1627.973152938863</v>
       </c>
       <c r="O42" t="n">
-        <v>1956.042879713457</v>
+        <v>2142.312086469978</v>
       </c>
       <c r="P42" t="n">
-        <v>2349.512152550269</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.61674493255</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R42" t="n">
         <v>2562.61674493255</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>430.5257148403881</v>
+        <v>664.5875669762975</v>
       </c>
       <c r="C43" t="n">
-        <v>261.5895319124812</v>
+        <v>495.6513840483906</v>
       </c>
       <c r="D43" t="n">
-        <v>261.5895319124812</v>
+        <v>495.6513840483906</v>
       </c>
       <c r="E43" t="n">
-        <v>261.5895319124812</v>
+        <v>347.7382904659975</v>
       </c>
       <c r="F43" t="n">
-        <v>261.5895319124812</v>
+        <v>347.7382904659975</v>
       </c>
       <c r="G43" t="n">
-        <v>94.25835824037279</v>
+        <v>180.4071167938891</v>
       </c>
       <c r="H43" t="n">
-        <v>94.25835824037279</v>
+        <v>180.4071167938891</v>
       </c>
       <c r="I43" t="n">
         <v>94.25835824037279</v>
@@ -7612,7 +7612,7 @@
         <v>776.4813528576087</v>
       </c>
       <c r="Y43" t="n">
-        <v>555.6887737140786</v>
+        <v>664.5875669762975</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2331.65663077372</v>
+        <v>2331.656630773718</v>
       </c>
       <c r="C44" t="n">
-        <v>1962.694113833308</v>
+        <v>1962.694113833307</v>
       </c>
       <c r="D44" t="n">
-        <v>1604.428415226558</v>
+        <v>1604.428415226557</v>
       </c>
       <c r="E44" t="n">
-        <v>1218.640162628314</v>
+        <v>1218.640162628313</v>
       </c>
       <c r="F44" t="n">
-        <v>807.6542578387061</v>
+        <v>807.654257838705</v>
       </c>
       <c r="G44" t="n">
-        <v>393.4103664829181</v>
+        <v>393.410366482917</v>
       </c>
       <c r="H44" t="n">
         <v>104.3122438941496</v>
@@ -7655,16 +7655,16 @@
         <v>1368.363765303656</v>
       </c>
       <c r="M44" t="n">
-        <v>2423.881875540701</v>
+        <v>2213.690034787395</v>
       </c>
       <c r="N44" t="n">
-        <v>3115.560458363471</v>
+        <v>2905.368617610166</v>
       </c>
       <c r="O44" t="n">
-        <v>3755.357669180135</v>
+        <v>3545.16582842683</v>
       </c>
       <c r="P44" t="n">
-        <v>4266.908785521586</v>
+        <v>4056.71694476828</v>
       </c>
       <c r="Q44" t="n">
         <v>4602.889623228375</v>
@@ -7691,7 +7691,7 @@
         <v>3108.395802813653</v>
       </c>
       <c r="Y44" t="n">
-        <v>2718.256470837842</v>
+        <v>2718.25647083784</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>94.25835824037279</v>
       </c>
       <c r="K45" t="n">
-        <v>94.25835824037279</v>
+        <v>402.6841346624312</v>
       </c>
       <c r="L45" t="n">
-        <v>555.2974178998593</v>
+        <v>863.7231943219176</v>
       </c>
       <c r="M45" t="n">
-        <v>855.1757316276431</v>
+        <v>1421.090899309224</v>
       </c>
       <c r="N45" t="n">
-        <v>1441.703946182343</v>
+        <v>1627.973152938863</v>
       </c>
       <c r="O45" t="n">
-        <v>1956.042879713457</v>
+        <v>2142.312086469978</v>
       </c>
       <c r="P45" t="n">
-        <v>2349.512152550269</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.61674493255</v>
+        <v>2535.781359306789</v>
       </c>
       <c r="R45" t="n">
         <v>2562.61674493255</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>374.0403088838389</v>
+        <v>555.6887737140786</v>
       </c>
       <c r="C46" t="n">
-        <v>261.5895319124812</v>
+        <v>555.6887737140786</v>
       </c>
       <c r="D46" t="n">
-        <v>261.5895319124812</v>
+        <v>405.5721343017428</v>
       </c>
       <c r="E46" t="n">
-        <v>261.5895319124812</v>
+        <v>257.6590407193497</v>
       </c>
       <c r="F46" t="n">
-        <v>261.5895319124812</v>
+        <v>110.7690932214394</v>
       </c>
       <c r="G46" t="n">
-        <v>94.25835824037279</v>
+        <v>110.7690932214394</v>
       </c>
       <c r="H46" t="n">
-        <v>94.25835824037279</v>
+        <v>110.7690932214394</v>
       </c>
       <c r="I46" t="n">
         <v>94.25835824037279</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
         <v>392.8337743093848</v>
@@ -8070,13 +8070,13 @@
         <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>269.0159391714756</v>
+        <v>237.7646974507862</v>
       </c>
       <c r="P3" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M6" t="n">
         <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>325.1495899637346</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>119.5899201578276</v>
+        <v>166.6871829098017</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>165.1779743121199</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>61.79777901302944</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>61.79777901302919</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>230.8943941851024</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>230.8943941851035</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>230.8943941851024</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>165.1779743121202</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>61.79777901303035</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>230.8943941851031</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>61.79777901303035</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>105.1945844670192</v>
+        <v>317.5095751269237</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>105.1945844670191</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>170.9110043400012</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>317.5095751269218</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.814389167926862</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>148.4129599548482</v>
+        <v>214.1293798278311</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>383.2259949999059</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>317.5095751269218</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>105.1945844670191</v>
+        <v>2.425813737160581</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>383.225994999906</v>
+        <v>170.9110043400012</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>58.21336161638483</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.053661780535094</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>136.4806158493301</v>
@@ -23428,13 +23428,13 @@
         <v>135.4677012256922</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>155.7045151381482</v>
       </c>
       <c r="H13" t="n">
-        <v>131.5302908032558</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.33392417074208</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.2934743013888</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>138.6621262209733</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>114.5766691364511</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.4677012256922</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>143.5342776298652</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.5302908032558</v>
       </c>
       <c r="I16" t="n">
         <v>75.33392417074208</v>
@@ -23896,19 +23896,19 @@
         <v>138.6621262209733</v>
       </c>
       <c r="E19" t="n">
-        <v>136.4806158493301</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>135.3895275885098</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.5302908032558</v>
       </c>
       <c r="I19" t="n">
-        <v>75.33392417074208</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>215.6737768053262</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>138.5839525837909</v>
+        <v>138.6621262209733</v>
       </c>
       <c r="E22" t="n">
-        <v>136.4806158493301</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.4677012256922</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>56.11383484604187</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>215.7563085917981</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.053661780535094</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>136.4806158493301</v>
@@ -24376,7 +24376,7 @@
         <v>135.4677012256922</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.053661780535094</v>
       </c>
       <c r="H25" t="n">
         <v>131.5302908032558</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>2.285720449159498</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6578619353873</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>141.4836376004949</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>37.28920381656835</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3664420627839888</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>68.94164333672525</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.6578619353873</v>
       </c>
       <c r="H31" t="n">
         <v>141.4836376004949</v>
       </c>
       <c r="I31" t="n">
-        <v>85.28727096798116</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.3567244003537</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>38.87816297980876</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.6578619353873</v>
       </c>
       <c r="H34" t="n">
         <v>141.4836376004949</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>55.92055189698385</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.6578619353873</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.28727096798116</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>197.4041894974787</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>243.8232984725882</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>95.20782545437588</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.6578619353873</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.38794797251879</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.72721710501216</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1917684061415</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.92055189698372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>141.4836376004949</v>
       </c>
       <c r="I43" t="n">
-        <v>85.28727096798116</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>107.8098053295967</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>55.92055189698372</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.6578619353873</v>
       </c>
       <c r="H46" t="n">
         <v>141.4836376004949</v>
       </c>
       <c r="I46" t="n">
-        <v>85.28727096798116</v>
+        <v>68.94164333672525</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>789146.4566820659</v>
       </c>
       <c r="F2" t="n">
-        <v>789146.4566820659</v>
+        <v>789146.4566820655</v>
       </c>
       <c r="G2" t="n">
         <v>789146.4566820659</v>
       </c>
       <c r="H2" t="n">
-        <v>789146.4566820659</v>
+        <v>789146.4566820657</v>
       </c>
       <c r="I2" t="n">
-        <v>789146.4566820659</v>
+        <v>789146.4566820656</v>
       </c>
       <c r="J2" t="n">
+        <v>783593.7361244924</v>
+      </c>
+      <c r="K2" t="n">
         <v>783593.7361244921</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>783593.7361244925</v>
+      </c>
+      <c r="M2" t="n">
         <v>783593.7361244923</v>
       </c>
-      <c r="L2" t="n">
-        <v>783593.736124492</v>
-      </c>
-      <c r="M2" t="n">
-        <v>783593.7361244925</v>
-      </c>
       <c r="N2" t="n">
-        <v>783593.7361244925</v>
+        <v>783593.7361244923</v>
       </c>
       <c r="O2" t="n">
-        <v>783593.7361244921</v>
+        <v>783593.7361244923</v>
       </c>
       <c r="P2" t="n">
-        <v>783593.7361244924</v>
+        <v>783593.7361244923</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>882920.1940583177</v>
+        <v>882920.1940583176</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>78941.53619807439</v>
+        <v>78941.53619807445</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475296</v>
+        <v>3323.773824475326</v>
       </c>
       <c r="L3" t="n">
-        <v>100763.3119392804</v>
+        <v>100763.3119392803</v>
       </c>
       <c r="M3" t="n">
         <v>115997.1613255761</v>
@@ -26421,40 +26421,40 @@
         <v>342104.9357195593</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.3249983351</v>
+        <v>218780.324998335</v>
       </c>
       <c r="E4" t="n">
-        <v>20461.3460810486</v>
+        <v>20461.34608104858</v>
       </c>
       <c r="F4" t="n">
         <v>20461.34608104865</v>
       </c>
       <c r="G4" t="n">
-        <v>20461.34608104861</v>
+        <v>20461.34608104864</v>
       </c>
       <c r="H4" t="n">
-        <v>20461.34608104862</v>
+        <v>20461.34608104866</v>
       </c>
       <c r="I4" t="n">
-        <v>20461.34608104864</v>
+        <v>20461.34608104866</v>
       </c>
       <c r="J4" t="n">
-        <v>13149.48140177174</v>
+        <v>13149.48140177173</v>
       </c>
       <c r="K4" t="n">
-        <v>13149.48140177174</v>
+        <v>13149.48140177173</v>
       </c>
       <c r="L4" t="n">
-        <v>13149.48140177172</v>
+        <v>13149.4814017717</v>
       </c>
       <c r="M4" t="n">
-        <v>13149.4814017717</v>
+        <v>13149.48140177171</v>
       </c>
       <c r="N4" t="n">
-        <v>13149.48140177172</v>
+        <v>13149.48140177173</v>
       </c>
       <c r="O4" t="n">
-        <v>13149.48140177174</v>
+        <v>13149.48140177171</v>
       </c>
       <c r="P4" t="n">
         <v>13149.48140177173</v>
@@ -26482,13 +26482,13 @@
         <v>98339.32152912334</v>
       </c>
       <c r="G5" t="n">
-        <v>98339.32152912335</v>
+        <v>98339.32152912334</v>
       </c>
       <c r="H5" t="n">
-        <v>98339.32152912335</v>
+        <v>98339.32152912334</v>
       </c>
       <c r="I5" t="n">
-        <v>98339.32152912335</v>
+        <v>98339.32152912334</v>
       </c>
       <c r="J5" t="n">
         <v>99841.62089177845</v>
@@ -26497,16 +26497,16 @@
         <v>99841.62089177845</v>
       </c>
       <c r="L5" t="n">
-        <v>99841.62089177845</v>
+        <v>99841.62089177844</v>
       </c>
       <c r="M5" t="n">
         <v>99841.62089177844</v>
       </c>
       <c r="N5" t="n">
+        <v>99841.62089177845</v>
+      </c>
+      <c r="O5" t="n">
         <v>99841.62089177844</v>
-      </c>
-      <c r="O5" t="n">
-        <v>99841.62089177845</v>
       </c>
       <c r="P5" t="n">
         <v>99841.62089177845</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293614.0580458292</v>
+        <v>293614.0580458294</v>
       </c>
       <c r="C6" t="n">
-        <v>392122.7227969475</v>
+        <v>392122.7227969476</v>
       </c>
       <c r="D6" t="n">
-        <v>81692.70040224373</v>
+        <v>81692.70040224362</v>
       </c>
       <c r="E6" t="n">
-        <v>-212574.4049864238</v>
+        <v>-212603.5569580534</v>
       </c>
       <c r="F6" t="n">
-        <v>670345.7890718939</v>
+        <v>670316.6371002637</v>
       </c>
       <c r="G6" t="n">
-        <v>670345.7890718939</v>
+        <v>670316.6371002641</v>
       </c>
       <c r="H6" t="n">
-        <v>670345.7890718939</v>
+        <v>670316.6371002638</v>
       </c>
       <c r="I6" t="n">
-        <v>670345.7890718939</v>
+        <v>670316.6371002637</v>
       </c>
       <c r="J6" t="n">
-        <v>591661.0976328675</v>
+        <v>591617.7079162184</v>
       </c>
       <c r="K6" t="n">
-        <v>667278.8600064667</v>
+        <v>667235.4702898173</v>
       </c>
       <c r="L6" t="n">
-        <v>569839.3218916614</v>
+        <v>569795.9321750128</v>
       </c>
       <c r="M6" t="n">
-        <v>554605.4725053662</v>
+        <v>554562.0827887168</v>
       </c>
       <c r="N6" t="n">
-        <v>670602.6338309422</v>
+        <v>670559.2441142928</v>
       </c>
       <c r="O6" t="n">
-        <v>670602.6338309419</v>
+        <v>670559.244114293</v>
       </c>
       <c r="P6" t="n">
-        <v>670602.6338309421</v>
+        <v>670559.2441142928</v>
       </c>
     </row>
   </sheetData>
@@ -26802,13 +26802,13 @@
         <v>1139.757976778472</v>
       </c>
       <c r="G4" t="n">
-        <v>1139.757976778473</v>
+        <v>1139.757976778472</v>
       </c>
       <c r="H4" t="n">
-        <v>1139.757976778473</v>
+        <v>1139.757976778472</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.757976778473</v>
+        <v>1139.757976778472</v>
       </c>
       <c r="J4" t="n">
         <v>1178.22947800466</v>
@@ -26963,10 +26963,10 @@
         <v>12.00787803233601</v>
       </c>
       <c r="D3" t="n">
-        <v>342.7224034979612</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
-        <v>916.0759976680114</v>
+        <v>916.0759976680113</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>301.7135351778538</v>
+        <v>301.7135351778541</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068888</v>
+        <v>12.914479750689</v>
       </c>
       <c r="L4" t="n">
-        <v>398.1307590522001</v>
+        <v>398.1307590521999</v>
       </c>
       <c r="M4" t="n">
-        <v>465.4707040239165</v>
+        <v>465.4707040239167</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>353.8044229872013</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27400,7 +27400,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>73.52696770396494</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27512,16 +27512,16 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>133.3494487187205</v>
       </c>
       <c r="X3" t="n">
-        <v>34.19782427937687</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>67.9332040940478</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.74958424511996</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>133.4823786206793</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27664,16 +27664,16 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>51.59574476777942</v>
+        <v>233.8643441505979</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5079271034444</v>
+        <v>56.78733164066692</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>235.774294423823</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>119.9182417169036</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>174.4537986637794</v>
@@ -27828,7 +27828,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3155846423218</v>
+        <v>192.0582235775503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>239.8038512531363</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,22 +28062,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28336,7 +28336,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="F14" t="n">
-        <v>9.953346797240499</v>
+        <v>9.953346797239091</v>
       </c>
       <c r="G14" t="n">
         <v>9.953346797239091</v>
@@ -28345,7 +28345,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="I14" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797239078</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="T14" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797240329</v>
       </c>
       <c r="U14" t="n">
         <v>9.953346797239091</v>
@@ -28582,7 +28582,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="I17" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797239078</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="W17" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797240329</v>
       </c>
       <c r="X17" t="n">
         <v>9.953346797239091</v>
@@ -28801,7 +28801,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="C20" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797240499</v>
       </c>
       <c r="D20" t="n">
         <v>9.953346797239091</v>
@@ -28819,7 +28819,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="I20" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797239078</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="D23" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797240499</v>
       </c>
       <c r="E23" t="n">
         <v>9.953346797239091</v>
@@ -29056,7 +29056,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="I23" t="n">
-        <v>9.953346797239091</v>
+        <v>9.953346797239078</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>9.953346797239091</v>
       </c>
       <c r="W23" t="n">
-        <v>9.953346797239419</v>
+        <v>9.953346797239091</v>
       </c>
       <c r="X23" t="n">
         <v>9.953346797239091</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31069,10 +31069,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
         <v>2.10821088633251</v>
@@ -31081,7 +31081,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31127,10 +31127,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31139,7 +31139,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
@@ -31148,19 +31148,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31209,37 +31209,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,7 +31838,7 @@
         <v>95.8158900546983</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>262.9261258176123</v>
       </c>
       <c r="K12" t="n">
         <v>449.3826272794685</v>
@@ -31847,7 +31847,7 @@
         <v>604.2503996379413</v>
       </c>
       <c r="M12" t="n">
-        <v>705.1317157273783</v>
+        <v>562.7580259171991</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31862,7 +31862,7 @@
         <v>355.2389381085273</v>
       </c>
       <c r="R12" t="n">
-        <v>166.5007634317609</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S12" t="n">
         <v>51.69175724606968</v>
@@ -32075,13 +32075,13 @@
         <v>95.8158900546983</v>
       </c>
       <c r="J15" t="n">
-        <v>236.1593280405921</v>
+        <v>262.9261258176123</v>
       </c>
       <c r="K15" t="n">
-        <v>449.3826272794685</v>
+        <v>139.1063555580489</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>604.2503996379413</v>
       </c>
       <c r="M15" t="n">
         <v>705.1317157273783</v>
@@ -32093,10 +32093,10 @@
         <v>662.1305207384992</v>
       </c>
       <c r="P15" t="n">
-        <v>531.4181173505037</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>355.2389381085273</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>95.8158900546983</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>262.9261258176123</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>344.1601054364033</v>
+        <v>180.9651561584271</v>
       </c>
       <c r="M18" t="n">
         <v>705.1317157273783</v>
@@ -32336,7 +32336,7 @@
         <v>355.2389381085273</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S18" t="n">
         <v>51.69175724606968</v>
@@ -32552,19 +32552,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L21" t="n">
-        <v>317.0536553093726</v>
+        <v>604.2503996379413</v>
       </c>
       <c r="M21" t="n">
         <v>705.1317157273783</v>
       </c>
       <c r="N21" t="n">
-        <v>723.7944540577777</v>
+        <v>644.5907977181542</v>
       </c>
       <c r="O21" t="n">
-        <v>662.1305207384992</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>531.4181173505037</v>
@@ -32786,10 +32786,10 @@
         <v>95.8158900546983</v>
       </c>
       <c r="J24" t="n">
-        <v>262.9261258176123</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L24" t="n">
         <v>604.2503996379413</v>
@@ -32798,19 +32798,19 @@
         <v>705.1317157273783</v>
       </c>
       <c r="N24" t="n">
-        <v>723.7944540577777</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>662.1305207384992</v>
+        <v>655.8453300792654</v>
       </c>
       <c r="P24" t="n">
-        <v>350.496488020526</v>
+        <v>531.4181173505037</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>355.2389381085273</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S24" t="n">
         <v>51.69175724606968</v>
@@ -33023,31 +33023,31 @@
         <v>95.8158900546983</v>
       </c>
       <c r="J27" t="n">
-        <v>262.9261258176123</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>449.3826272794685</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>604.2503996379413</v>
       </c>
       <c r="M27" t="n">
-        <v>463.1077539278525</v>
+        <v>705.1317157273783</v>
       </c>
       <c r="N27" t="n">
-        <v>723.7944540577777</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>662.1305207384992</v>
       </c>
       <c r="P27" t="n">
-        <v>531.4181173505037</v>
+        <v>525.1329266912702</v>
       </c>
       <c r="Q27" t="n">
         <v>355.2389381085273</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S27" t="n">
         <v>51.69175724606968</v>
@@ -33260,16 +33260,16 @@
         <v>95.8158900546983</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>262.9261258176123</v>
       </c>
       <c r="K30" t="n">
-        <v>343.4471646308883</v>
+        <v>277.5538773002048</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>604.2503996379413</v>
       </c>
       <c r="M30" t="n">
-        <v>705.1317157273783</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>723.7944540577777</v>
@@ -33284,7 +33284,7 @@
         <v>355.2389381085273</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S30" t="n">
         <v>51.69175724606968</v>
@@ -33500,19 +33500,19 @@
         <v>262.9261258176123</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L33" t="n">
-        <v>208.071606285458</v>
+        <v>604.2503996379413</v>
       </c>
       <c r="M33" t="n">
-        <v>705.1317157273783</v>
+        <v>489.8395602368091</v>
       </c>
       <c r="N33" t="n">
         <v>723.7944540577777</v>
       </c>
       <c r="O33" t="n">
-        <v>662.1305207384992</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>531.4181173505037</v>
@@ -33521,7 +33521,7 @@
         <v>355.2389381085273</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S33" t="n">
         <v>51.69175724606968</v>
@@ -33737,10 +33737,10 @@
         <v>262.9261258176123</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L36" t="n">
-        <v>208.0716062854575</v>
+        <v>388.9582441473722</v>
       </c>
       <c r="M36" t="n">
         <v>705.1317157273783</v>
@@ -33749,7 +33749,7 @@
         <v>723.7944540577777</v>
       </c>
       <c r="O36" t="n">
-        <v>662.1305207384992</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>531.4181173505037</v>
@@ -33758,7 +33758,7 @@
         <v>355.2389381085273</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S36" t="n">
         <v>51.69175724606968</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L39" t="n">
         <v>604.2503996379413</v>
       </c>
       <c r="M39" t="n">
-        <v>705.1317157273783</v>
+        <v>625.9280593877552</v>
       </c>
       <c r="N39" t="n">
         <v>723.7944540577777</v>
       </c>
       <c r="O39" t="n">
-        <v>662.1305207384992</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>271.3278231489654</v>
+        <v>531.4181173505037</v>
       </c>
       <c r="Q39" t="n">
         <v>355.2389381085273</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S39" t="n">
         <v>51.69175724606968</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L42" t="n">
-        <v>344.1601054364035</v>
+        <v>220.769631026769</v>
       </c>
       <c r="M42" t="n">
         <v>705.1317157273783</v>
@@ -34229,10 +34229,10 @@
         <v>531.4181173505037</v>
       </c>
       <c r="Q42" t="n">
-        <v>355.2389381085273</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S42" t="n">
         <v>51.69175724606968</v>
@@ -34448,16 +34448,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>449.3826272794685</v>
       </c>
       <c r="L45" t="n">
         <v>604.2503996379413</v>
       </c>
       <c r="M45" t="n">
-        <v>445.0414215258404</v>
+        <v>705.1317157273783</v>
       </c>
       <c r="N45" t="n">
-        <v>723.7944540577777</v>
+        <v>340.3136854466056</v>
       </c>
       <c r="O45" t="n">
         <v>662.1305207384992</v>
@@ -34466,10 +34466,10 @@
         <v>531.4181173505037</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.2389381085273</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>172.7859540909949</v>
       </c>
       <c r="S45" t="n">
         <v>51.69175724606968</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>263.2420339516666</v>
@@ -34790,13 +34790,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>138.1971189780713</v>
+        <v>106.945877257382</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L6" t="n">
-        <v>248.6418854471727</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>213.3996301387353</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>47.09726275197413</v>
       </c>
       <c r="Q6" t="n">
         <v>79.71116244199196</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>429.5032796018512</v>
+        <v>260.4066644297774</v>
       </c>
       <c r="K11" t="n">
         <v>441.5331150475483</v>
@@ -35419,7 +35419,7 @@
         <v>682.9539143304427</v>
       </c>
       <c r="N11" t="n">
-        <v>698.6652351745156</v>
+        <v>863.8432094866355</v>
       </c>
       <c r="O11" t="n">
         <v>646.2598089057215</v>
@@ -35431,7 +35431,7 @@
         <v>339.3745835422112</v>
       </c>
       <c r="R11" t="n">
-        <v>172.9374646597608</v>
+        <v>176.8561055197138</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.0884991509456</v>
       </c>
       <c r="K12" t="n">
         <v>311.5411883051095</v>
@@ -35495,7 +35495,7 @@
         <v>465.6960198580671</v>
       </c>
       <c r="M12" t="n">
-        <v>562.9976818053599</v>
+        <v>420.6239919951807</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>215.2571640225058</v>
       </c>
       <c r="R12" t="n">
-        <v>20.82125946779692</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>260.4066644297774</v>
+        <v>429.5032796018512</v>
       </c>
       <c r="K14" t="n">
         <v>441.5331150475483</v>
@@ -35653,7 +35653,7 @@
         <v>585.0353791724554</v>
       </c>
       <c r="M14" t="n">
-        <v>682.9539143304427</v>
+        <v>744.7516933434719</v>
       </c>
       <c r="N14" t="n">
         <v>698.6652351745156</v>
@@ -35662,7 +35662,7 @@
         <v>646.2598089057215</v>
       </c>
       <c r="P14" t="n">
-        <v>747.612693519901</v>
+        <v>516.7182993347985</v>
       </c>
       <c r="Q14" t="n">
         <v>339.3745835422112</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>109.3217013739254</v>
+        <v>136.0884991509456</v>
       </c>
       <c r="K15" t="n">
-        <v>311.5411883051095</v>
+        <v>1.264916583689933</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>465.6960198580671</v>
       </c>
       <c r="M15" t="n">
         <v>562.9976818053599</v>
@@ -35741,10 +35741,10 @@
         <v>519.5342762940547</v>
       </c>
       <c r="P15" t="n">
-        <v>397.4437099361735</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>215.2571640225058</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,10 +35896,10 @@
         <v>698.6652351745156</v>
       </c>
       <c r="O17" t="n">
-        <v>877.1542030908249</v>
+        <v>646.2598089057215</v>
       </c>
       <c r="P17" t="n">
-        <v>516.7182993347985</v>
+        <v>747.612693519901</v>
       </c>
       <c r="Q17" t="n">
         <v>339.3745835422112</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>136.0884991509456</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>205.6057256565292</v>
+        <v>42.41077637855291</v>
       </c>
       <c r="M18" t="n">
         <v>562.9976818053599</v>
@@ -35984,7 +35984,7 @@
         <v>215.2571640225058</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>429.5032796018512</v>
+        <v>260.4066644297774</v>
       </c>
       <c r="K20" t="n">
-        <v>441.5331150475483</v>
+        <v>606.7110893596684</v>
       </c>
       <c r="L20" t="n">
         <v>585.0353791724554</v>
@@ -36142,7 +36142,7 @@
         <v>339.3745835422112</v>
       </c>
       <c r="R20" t="n">
-        <v>172.9374646597617</v>
+        <v>176.8561055197138</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4992755294984</v>
+        <v>465.6960198580671</v>
       </c>
       <c r="M21" t="n">
         <v>562.9976818053599</v>
       </c>
       <c r="N21" t="n">
-        <v>592.4527419744444</v>
+        <v>513.249085634821</v>
       </c>
       <c r="O21" t="n">
-        <v>519.5342762940547</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>397.4437099361735</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>429.5032796018512</v>
+        <v>260.4066644297774</v>
       </c>
       <c r="K23" t="n">
-        <v>441.5331150475483</v>
+        <v>672.4275092326513</v>
       </c>
       <c r="L23" t="n">
         <v>585.0353791724554</v>
@@ -36379,7 +36379,7 @@
         <v>339.3745835422112</v>
       </c>
       <c r="R23" t="n">
-        <v>172.9374646597617</v>
+        <v>111.1396856467314</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.0884991509456</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L24" t="n">
         <v>465.6960198580671</v>
@@ -36446,19 +36446,19 @@
         <v>562.9976818053599</v>
       </c>
       <c r="N24" t="n">
-        <v>592.4527419744444</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>519.5342762940547</v>
+        <v>513.249085634821</v>
       </c>
       <c r="P24" t="n">
-        <v>216.5220806061958</v>
+        <v>397.4437099361735</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>215.2571640225058</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>646.2598089057215</v>
       </c>
       <c r="P26" t="n">
-        <v>621.9128838018178</v>
+        <v>834.2278744617222</v>
       </c>
       <c r="Q26" t="n">
-        <v>551.6895742021159</v>
+        <v>339.3745835422112</v>
       </c>
       <c r="R26" t="n">
         <v>176.8561055197138</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>136.0884991509456</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>311.5411883051095</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>465.6960198580671</v>
       </c>
       <c r="M27" t="n">
-        <v>320.9737200058342</v>
+        <v>562.9976818053599</v>
       </c>
       <c r="N27" t="n">
-        <v>592.4527419744444</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>519.5342762940547</v>
       </c>
       <c r="P27" t="n">
-        <v>397.4437099361735</v>
+        <v>391.15851927694</v>
       </c>
       <c r="Q27" t="n">
         <v>215.2571640225058</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>365.6012488967965</v>
+        <v>260.4066644297774</v>
       </c>
       <c r="K29" t="n">
         <v>441.5331150475483</v>
@@ -36838,7 +36838,7 @@
         <v>585.0353791724554</v>
       </c>
       <c r="M29" t="n">
-        <v>682.9539143304427</v>
+        <v>853.8649186704439</v>
       </c>
       <c r="N29" t="n">
         <v>698.6652351745156</v>
@@ -36853,7 +36853,7 @@
         <v>551.6895742021159</v>
       </c>
       <c r="R29" t="n">
-        <v>176.8561055197138</v>
+        <v>111.1396856467314</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>136.0884991509456</v>
       </c>
       <c r="K30" t="n">
-        <v>205.6057256565293</v>
+        <v>139.7124383258459</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>465.6960198580671</v>
       </c>
       <c r="M30" t="n">
-        <v>562.9976818053599</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>592.4527419744444</v>
@@ -36932,7 +36932,7 @@
         <v>215.2571640225058</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>429.5032796018512</v>
+        <v>260.4066644297774</v>
       </c>
       <c r="K32" t="n">
         <v>441.5331150475483</v>
@@ -37084,13 +37084,13 @@
         <v>646.2598089057215</v>
       </c>
       <c r="P32" t="n">
-        <v>516.7182993347985</v>
+        <v>834.2278744617204</v>
       </c>
       <c r="Q32" t="n">
-        <v>551.6895742021159</v>
+        <v>339.3745835422112</v>
       </c>
       <c r="R32" t="n">
-        <v>112.9540748146582</v>
+        <v>176.8561055197138</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>136.0884991509456</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L33" t="n">
-        <v>69.51722650558378</v>
+        <v>465.6960198580671</v>
       </c>
       <c r="M33" t="n">
-        <v>562.9976818053599</v>
+        <v>347.7055263147907</v>
       </c>
       <c r="N33" t="n">
         <v>592.4527419744444</v>
       </c>
       <c r="O33" t="n">
-        <v>519.5342762940547</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>397.4437099361735</v>
@@ -37169,7 +37169,7 @@
         <v>215.2571640225058</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>429.5032796018512</v>
       </c>
       <c r="K35" t="n">
-        <v>589.9460750023965</v>
+        <v>655.6624948753794</v>
       </c>
       <c r="L35" t="n">
         <v>585.0353791724554</v>
@@ -37327,7 +37327,7 @@
         <v>339.3745835422112</v>
       </c>
       <c r="R35" t="n">
-        <v>176.8561055197138</v>
+        <v>111.1396856467314</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>136.0884991509456</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L36" t="n">
-        <v>69.51722650558334</v>
+        <v>250.403864367498</v>
       </c>
       <c r="M36" t="n">
         <v>562.9976818053599</v>
@@ -37397,7 +37397,7 @@
         <v>592.4527419744444</v>
       </c>
       <c r="O36" t="n">
-        <v>519.5342762940547</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>397.4437099361735</v>
@@ -37406,7 +37406,7 @@
         <v>215.2571640225058</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,19 +37552,19 @@
         <v>682.9539143304427</v>
       </c>
       <c r="N38" t="n">
-        <v>698.6652351745156</v>
+        <v>1081.891230174421</v>
       </c>
       <c r="O38" t="n">
         <v>646.2598089057215</v>
       </c>
       <c r="P38" t="n">
-        <v>834.2278744617204</v>
+        <v>516.7182993347985</v>
       </c>
       <c r="Q38" t="n">
         <v>339.3745835422112</v>
       </c>
       <c r="R38" t="n">
-        <v>176.8561055197138</v>
+        <v>111.1396856467314</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L39" t="n">
         <v>465.6960198580671</v>
       </c>
       <c r="M39" t="n">
-        <v>562.9976818053599</v>
+        <v>483.7940254657368</v>
       </c>
       <c r="N39" t="n">
         <v>592.4527419744444</v>
       </c>
       <c r="O39" t="n">
-        <v>519.5342762940547</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>137.3534157346351</v>
+        <v>397.4437099361735</v>
       </c>
       <c r="Q39" t="n">
         <v>215.2571640225058</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>260.4066644297774</v>
       </c>
       <c r="K41" t="n">
-        <v>546.7276995145673</v>
+        <v>443.9589287847089</v>
       </c>
       <c r="L41" t="n">
         <v>585.0353791724554</v>
@@ -37792,16 +37792,16 @@
         <v>698.6652351745156</v>
       </c>
       <c r="O41" t="n">
-        <v>646.2598089057215</v>
+        <v>1027.059990168467</v>
       </c>
       <c r="P41" t="n">
         <v>516.7182993347985</v>
       </c>
       <c r="Q41" t="n">
-        <v>551.6895742021159</v>
+        <v>339.3745835422112</v>
       </c>
       <c r="R41" t="n">
-        <v>176.8561055197138</v>
+        <v>111.1396856467314</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L42" t="n">
-        <v>205.6057256565293</v>
+        <v>82.21525124689485</v>
       </c>
       <c r="M42" t="n">
         <v>562.9976818053599</v>
@@ -37877,10 +37877,10 @@
         <v>397.4437099361735</v>
       </c>
       <c r="Q42" t="n">
-        <v>215.2571640225058</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>585.0353791724554</v>
       </c>
       <c r="M44" t="n">
-        <v>1066.179909330349</v>
+        <v>853.8649186704439</v>
       </c>
       <c r="N44" t="n">
         <v>698.6652351745156</v>
@@ -38035,7 +38035,7 @@
         <v>516.7182993347985</v>
       </c>
       <c r="Q44" t="n">
-        <v>339.3745835422112</v>
+        <v>551.6895742021159</v>
       </c>
       <c r="R44" t="n">
         <v>111.1396856467314</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>311.5411883051095</v>
       </c>
       <c r="L45" t="n">
         <v>465.6960198580671</v>
       </c>
       <c r="M45" t="n">
-        <v>302.9073876038221</v>
+        <v>562.9976818053599</v>
       </c>
       <c r="N45" t="n">
-        <v>592.4527419744444</v>
+        <v>208.9719733632723</v>
       </c>
       <c r="O45" t="n">
         <v>519.5342762940547</v>
@@ -38114,10 +38114,10 @@
         <v>397.4437099361735</v>
       </c>
       <c r="Q45" t="n">
-        <v>215.2571640225058</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>27.10645012703091</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
